--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Efna2-Epha4.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H2">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J2">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N2">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P2">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q2">
-        <v>21.67574500062845</v>
+        <v>28.12428263620355</v>
       </c>
       <c r="R2">
-        <v>195.081705005656</v>
+        <v>253.118543725832</v>
       </c>
       <c r="S2">
-        <v>0.1030508398661474</v>
+        <v>0.09762032492932622</v>
       </c>
       <c r="T2">
-        <v>0.1030508398661474</v>
+        <v>0.09762032492932622</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H3">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J3">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>34.723655</v>
       </c>
       <c r="O3">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P3">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q3">
-        <v>32.00090762232389</v>
+        <v>38.11529186030889</v>
       </c>
       <c r="R3">
-        <v>288.008168600915</v>
+        <v>343.03762674278</v>
       </c>
       <c r="S3">
-        <v>0.1521387341871693</v>
+        <v>0.1322994518405865</v>
       </c>
       <c r="T3">
-        <v>0.1521387341871693</v>
+        <v>0.1322994518405865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,7 +655,7 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H4">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J4">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N4">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P4">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q4">
-        <v>1.343182416360555</v>
+        <v>0.08773278093066665</v>
       </c>
       <c r="R4">
-        <v>12.088641747245</v>
+        <v>0.7895950283759999</v>
       </c>
       <c r="S4">
-        <v>0.006385758648451686</v>
+        <v>0.0003045234145947689</v>
       </c>
       <c r="T4">
-        <v>0.006385758648451686</v>
+        <v>0.0003045234145947689</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.764764333333333</v>
+        <v>3.293025333333333</v>
       </c>
       <c r="H5">
-        <v>8.294293</v>
+        <v>9.879076</v>
       </c>
       <c r="I5">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="J5">
-        <v>0.2621645059246011</v>
+        <v>0.2347004583311417</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N5">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P5">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q5">
-        <v>0.1239268748892222</v>
+        <v>1.289575064736</v>
       </c>
       <c r="R5">
-        <v>1.115341874003</v>
+        <v>11.606175582624</v>
       </c>
       <c r="S5">
-        <v>0.0005891732228327588</v>
+        <v>0.004476158146634196</v>
       </c>
       <c r="T5">
-        <v>0.0005891732228327588</v>
+        <v>0.004476158146634196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>17.776364</v>
       </c>
       <c r="I6">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J6">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N6">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P6">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q6">
-        <v>46.45554878545423</v>
+        <v>50.60670505824978</v>
       </c>
       <c r="R6">
-        <v>418.0999390690881</v>
+        <v>455.460345524248</v>
       </c>
       <c r="S6">
-        <v>0.2208589978635125</v>
+        <v>0.1756575645072452</v>
       </c>
       <c r="T6">
-        <v>0.2208589978635126</v>
+        <v>0.1756575645072452</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>17.776364</v>
       </c>
       <c r="I7">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J7">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -874,10 +874,10 @@
         <v>34.723655</v>
       </c>
       <c r="O7">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P7">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q7">
         <v>68.58448118782445</v>
@@ -886,10 +886,10 @@
         <v>617.26033069042</v>
       </c>
       <c r="S7">
-        <v>0.326064381546488</v>
+        <v>0.2380590262610326</v>
       </c>
       <c r="T7">
-        <v>0.3260643815464881</v>
+        <v>0.2380590262610326</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>17.776364</v>
       </c>
       <c r="I8">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J8">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N8">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P8">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q8">
-        <v>2.878714261917778</v>
+        <v>0.1578659632293333</v>
       </c>
       <c r="R8">
-        <v>25.90842835726</v>
+        <v>1.420793669064</v>
       </c>
       <c r="S8">
-        <v>0.01368598506841092</v>
+        <v>0.0005479580341683296</v>
       </c>
       <c r="T8">
-        <v>0.01368598506841092</v>
+        <v>0.0005479580341683296</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,40 +980,40 @@
         <v>17.776364</v>
       </c>
       <c r="I9">
-        <v>0.56187208303298</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="J9">
-        <v>0.5618720830329801</v>
+        <v>0.422318927221656</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N9">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P9">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q9">
-        <v>0.2656006048271112</v>
+        <v>2.320455451104</v>
       </c>
       <c r="R9">
-        <v>2.390405443444</v>
+        <v>20.884099059936</v>
       </c>
       <c r="S9">
-        <v>0.001262718554568573</v>
+        <v>0.00805437841920994</v>
       </c>
       <c r="T9">
-        <v>0.001262718554568573</v>
+        <v>0.00805437841920994</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H10">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I10">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J10">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N10">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P10">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q10">
-        <v>2.957704327311112</v>
+        <v>18.67380209554955</v>
       </c>
       <c r="R10">
-        <v>26.61933894580001</v>
+        <v>168.064218859946</v>
       </c>
       <c r="S10">
-        <v>0.01406151968462037</v>
+        <v>0.06481739114251613</v>
       </c>
       <c r="T10">
-        <v>0.01406151968462037</v>
+        <v>0.06481739114251613</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H11">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I11">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J11">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1122,22 +1122,22 @@
         <v>34.723655</v>
       </c>
       <c r="O11">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P11">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q11">
-        <v>4.366596070847223</v>
+        <v>25.30757588452389</v>
       </c>
       <c r="R11">
-        <v>39.29936463762501</v>
+        <v>227.768182960715</v>
       </c>
       <c r="S11">
-        <v>0.02075967365569115</v>
+        <v>0.08784344166135485</v>
       </c>
       <c r="T11">
-        <v>0.02075967365569115</v>
+        <v>0.08784344166135485</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H12">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I12">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J12">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N12">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P12">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q12">
-        <v>0.1832802722638889</v>
+        <v>0.05825231560866666</v>
       </c>
       <c r="R12">
-        <v>1.649522450375</v>
+        <v>0.524270840478</v>
       </c>
       <c r="S12">
-        <v>0.0008713511801851475</v>
+        <v>0.0002021957342401152</v>
       </c>
       <c r="T12">
-        <v>0.0008713511801851476</v>
+        <v>0.0002021957342401152</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,55 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3772583333333334</v>
+        <v>2.186484333333333</v>
       </c>
       <c r="H13">
-        <v>1.131775</v>
+        <v>6.559453</v>
       </c>
       <c r="I13">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="J13">
-        <v>0.03577293853651124</v>
+        <v>0.1558350827042511</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N13">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P13">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q13">
-        <v>0.01691010178055556</v>
+        <v>0.8562447568079999</v>
       </c>
       <c r="R13">
-        <v>0.152190916025</v>
+        <v>7.706202811272</v>
       </c>
       <c r="S13">
-        <v>8.039401601457117E-05</v>
+        <v>0.002972054166140044</v>
       </c>
       <c r="T13">
-        <v>8.039401601457118E-05</v>
+        <v>0.002972054166140044</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H14">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I14">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J14">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N14">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O14">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P14">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q14">
-        <v>6.98386701120089</v>
+        <v>9.990243974787331</v>
       </c>
       <c r="R14">
-        <v>62.85480310080801</v>
+        <v>89.912195773086</v>
       </c>
       <c r="S14">
-        <v>0.03320270472811274</v>
+        <v>0.0346764707053033</v>
       </c>
       <c r="T14">
-        <v>0.03320270472811274</v>
+        <v>0.0346764707053033</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H15">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I15">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J15">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>34.723655</v>
       </c>
       <c r="O15">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P15">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q15">
-        <v>10.31060676648278</v>
+        <v>13.53922764111833</v>
       </c>
       <c r="R15">
-        <v>92.79546089834501</v>
+        <v>121.853048770065</v>
       </c>
       <c r="S15">
-        <v>0.0490186928654506</v>
+        <v>0.04699511161634738</v>
       </c>
       <c r="T15">
-        <v>0.04901869286545062</v>
+        <v>0.04699511161634738</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,7 +1399,7 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H16">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I16">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J16">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N16">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O16">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P16">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q16">
-        <v>0.4327697787261112</v>
+        <v>0.031164239722</v>
       </c>
       <c r="R16">
-        <v>3.894928008535</v>
+        <v>0.280478157498</v>
       </c>
       <c r="S16">
-        <v>0.002057474341256529</v>
+        <v>0.0001081721175679283</v>
       </c>
       <c r="T16">
-        <v>0.002057474341256529</v>
+        <v>0.0001081721175679283</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,7 +1461,7 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8907996666666668</v>
+        <v>1.169741</v>
       </c>
       <c r="H17">
-        <v>2.672399</v>
+        <v>3.509223</v>
       </c>
       <c r="I17">
-        <v>0.08446870196994463</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="J17">
-        <v>0.08446870196994465</v>
+        <v>0.08336976519729013</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N17">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O17">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P17">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q17">
-        <v>0.03992890732544446</v>
+        <v>0.458079933528</v>
       </c>
       <c r="R17">
-        <v>0.3593601659290001</v>
+        <v>4.122719401752001</v>
       </c>
       <c r="S17">
-        <v>0.0001898300351247589</v>
+        <v>0.001590010758071513</v>
       </c>
       <c r="T17">
-        <v>0.0001898300351247589</v>
+        <v>0.001590010758071513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H18">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I18">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J18">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>7.839997333333334</v>
+        <v>8.540560666666666</v>
       </c>
       <c r="N18">
-        <v>23.519992</v>
+        <v>25.621682</v>
       </c>
       <c r="O18">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="P18">
-        <v>0.3930770090432645</v>
+        <v>0.4159358086620884</v>
       </c>
       <c r="Q18">
-        <v>4.607072512968001</v>
+        <v>12.43550613352844</v>
       </c>
       <c r="R18">
-        <v>41.463652616712</v>
+        <v>111.919555201756</v>
       </c>
       <c r="S18">
-        <v>0.02190294690087145</v>
+        <v>0.04316405737769764</v>
       </c>
       <c r="T18">
-        <v>0.02190294690087145</v>
+        <v>0.04316405737769764</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>21</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H19">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I19">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J19">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1618,22 +1618,22 @@
         <v>34.723655</v>
       </c>
       <c r="O19">
-        <v>0.5803178185796234</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="P19">
-        <v>0.5803178185796235</v>
+        <v>0.563694901924408</v>
       </c>
       <c r="Q19">
-        <v>6.801634817745001</v>
+        <v>16.85315681972111</v>
       </c>
       <c r="R19">
-        <v>61.21471335970501</v>
+        <v>151.67841137749</v>
       </c>
       <c r="S19">
-        <v>0.0323363363248244</v>
+        <v>0.05849787054508668</v>
       </c>
       <c r="T19">
-        <v>0.0323363363248244</v>
+        <v>0.05849787054508668</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1647,55 +1647,55 @@
         <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H20">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I20">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J20">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>0.4858216666666667</v>
+        <v>0.026642</v>
       </c>
       <c r="N20">
-        <v>1.457465</v>
+        <v>0.079926</v>
       </c>
       <c r="O20">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="P20">
-        <v>0.02435783069081152</v>
+        <v>0.001297498167494471</v>
       </c>
       <c r="Q20">
-        <v>0.2854867867350001</v>
+        <v>0.03879215514533332</v>
       </c>
       <c r="R20">
-        <v>2.569381080615</v>
+        <v>0.3491293963079999</v>
       </c>
       <c r="S20">
-        <v>0.001357261452507237</v>
+        <v>0.0001346488669233293</v>
       </c>
       <c r="T20">
-        <v>0.001357261452507237</v>
+        <v>0.0001346488669233293</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1709,55 +1709,55 @@
         <v>26</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5876370000000001</v>
+        <v>1.456052666666666</v>
       </c>
       <c r="H21">
-        <v>1.762911</v>
+        <v>4.368157999999999</v>
       </c>
       <c r="I21">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="J21">
-        <v>0.05572177053596303</v>
+        <v>0.1037757665456611</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.04482366666666667</v>
+        <v>0.391608</v>
       </c>
       <c r="N21">
-        <v>0.134471</v>
+        <v>1.174824</v>
       </c>
       <c r="O21">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="P21">
-        <v>0.002247341686300608</v>
+        <v>0.01907179124600912</v>
       </c>
       <c r="Q21">
-        <v>0.02634004500900001</v>
+        <v>0.5702018726879999</v>
       </c>
       <c r="R21">
-        <v>0.237060405081</v>
+        <v>5.131816854192</v>
       </c>
       <c r="S21">
-        <v>0.0001252258577599467</v>
+        <v>0.001979189755953425</v>
       </c>
       <c r="T21">
-        <v>0.0001252258577599467</v>
+        <v>0.001979189755953425</v>
       </c>
     </row>
   </sheetData>
